--- a/files/B/Slave 3.xlsx
+++ b/files/B/Slave 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C41FAF-FFFB-4E76-A73B-EB400766C70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567CD26-7CFA-4B3C-91C6-E647EFBF6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2040" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/files/B/Slave 3.xlsx
+++ b/files/B/Slave 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567CD26-7CFA-4B3C-91C6-E647EFBF6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2076919-35AD-4FF6-A097-BA63C069C753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2040" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/files/B/Slave 3.xlsx
+++ b/files/B/Slave 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2076919-35AD-4FF6-A097-BA63C069C753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530680D-44B3-4DE6-8149-CE673FFB4FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2040" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
